--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\COLLEGE FILES\TERM 11\DATAMIN\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3229968-31A3-4992-8D98-95789D5904ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E12AEF-79F7-4F58-AC55-F3D6F51936D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{5F8A69C4-FE9A-43CE-AFB0-5425A5DC562C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>training data</t>
   </si>
@@ -60,9 +60,6 @@
     <t>2015-2016</t>
   </si>
   <si>
-    <t>2015-2017</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -73,6 +70,123 @@
   </si>
   <si>
     <t>1/3 2015</t>
+  </si>
+  <si>
+    <t>2/3 2016</t>
+  </si>
+  <si>
+    <t>1/3 2016</t>
+  </si>
+  <si>
+    <t>2/3 2017</t>
+  </si>
+  <si>
+    <t>1/3 2017</t>
+  </si>
+  <si>
+    <t>dwpt</t>
+  </si>
+  <si>
+    <t>cc, dwpt</t>
+  </si>
+  <si>
+    <t>corr, all</t>
+  </si>
+  <si>
+    <t>(alpha=-0.99)</t>
+  </si>
+  <si>
+    <t>(alpha=-0.3)</t>
+  </si>
+  <si>
+    <t>(alpha=-0.2)</t>
+  </si>
+  <si>
+    <t>ridge regression (all)</t>
+  </si>
+  <si>
+    <t>ridge regression (corr: all)</t>
+  </si>
+  <si>
+    <t>ridge regression (corr: cc, dwpt)</t>
+  </si>
+  <si>
+    <t>ridge regression (corr: dwpt)</t>
+  </si>
+  <si>
+    <t>(alpha=-0.7)</t>
+  </si>
+  <si>
+    <t>bayes ridge regression</t>
+  </si>
+  <si>
+    <t>all except redundant</t>
+  </si>
+  <si>
+    <t>window 1, all</t>
+  </si>
+  <si>
+    <t>window 2, all</t>
+  </si>
+  <si>
+    <t>window 3, all</t>
+  </si>
+  <si>
+    <t>window 1, corr</t>
+  </si>
+  <si>
+    <t>window 2, corr</t>
+  </si>
+  <si>
+    <t>window 4, corr</t>
+  </si>
+  <si>
+    <t>window 4, all</t>
+  </si>
+  <si>
+    <t>window 3, corr</t>
+  </si>
+  <si>
+    <t>window 5, all</t>
+  </si>
+  <si>
+    <t>window 5, corr</t>
+  </si>
+  <si>
+    <t>- redundant</t>
+  </si>
+  <si>
+    <t>FEATURE ENGINEERING</t>
+  </si>
+  <si>
+    <t>alpha =</t>
+  </si>
+  <si>
+    <t>all correlated</t>
+  </si>
+  <si>
+    <t>cc &amp; dwpt</t>
+  </si>
+  <si>
+    <t>multilinear regression</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
 </sst>
 </file>
@@ -88,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +212,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,8 +240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -125,12 +252,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,6 +284,2213 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R2 Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Summary</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>linear regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$26:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>all except redundant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>all correlated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cc &amp; dwpt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dwpt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81880799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82371499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38489099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36387799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8267999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BA7-4C23-8DB0-11247F50F041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ridge regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$26:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>all except redundant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>all correlated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cc &amp; dwpt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dwpt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86773400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86728099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38045099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38290600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9663000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BA7-4C23-8DB0-11247F50F041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bayes ridge regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$26:$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>all except redundant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>all correlated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cc &amp; dwpt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dwpt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$26:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82366099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82684999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38247900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36212299999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7932999999999993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7BA7-4C23-8DB0-11247F50F041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="647227791"/>
+        <c:axId val="645920895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647227791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645920895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645920895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647227791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R2 Score Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multilinear regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$21:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$21:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81880799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82371499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38489099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36387799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8267999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84118999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-574C-441E-B085-24E8FEF67BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ridge regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$21:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$21:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86773400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86728099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38045099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38290600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9663000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84778100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-574C-441E-B085-24E8FEF67BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bayes ridge regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$21:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$21:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.82366099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82684999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38247900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36212299999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7932999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84993799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-574C-441E-B085-24E8FEF67BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="778013679"/>
+        <c:axId val="772887551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="778013679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772887551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="772887551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778013679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>595993</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>291193</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>140833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A66274-2657-4273-96DD-BB432B7FC7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDEE215-B61B-4B4A-B9E8-1A417DA32D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB119295-0B02-4DD1-BC87-3F50A7492ED2}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="N26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +2802,8 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -462,40 +2813,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -541,7 +2892,7 @@
         <v>2017</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>-8.0651910000000004</v>
@@ -582,13 +2933,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0.26119799999999999</v>
@@ -628,61 +2979,61 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.81880799999999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>2.8170000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>2.1018999999999999E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>0.811477</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>2.8733999999999999E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>2.1564E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>-9.4699999999999993E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>6.6490999999999995E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>5.5715000000000001E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>-9.4699999999999993E-3</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>6.6490999999999995E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>5.5715000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0.38469399999999998</v>
@@ -722,289 +3073,1409 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.75591699999999995</v>
+      </c>
+      <c r="E7">
+        <v>2.4032000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>17025268.860636</v>
+      </c>
+      <c r="G7">
+        <v>0.64624300000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.8930999999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.2290999999999998E-2</v>
+      </c>
+      <c r="J7">
+        <v>-1.6802999999999998E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="L7">
+        <v>6.0420000000000001E-2</v>
+      </c>
+      <c r="M7">
+        <v>-1.6802999999999998E-2</v>
+      </c>
+      <c r="N7">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="O7">
+        <v>6.0420000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>-0.260106</v>
+      </c>
+      <c r="E8">
+        <v>5.4604E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.8134999999999997E-2</v>
+      </c>
+      <c r="G8">
+        <v>-0.13913</v>
+      </c>
+      <c r="H8">
+        <v>5.1915999999999997E-2</v>
+      </c>
+      <c r="I8">
+        <v>4.7565999999999997E-2</v>
+      </c>
+      <c r="J8">
+        <v>-1.6802999999999998E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="L8">
+        <v>6.0420000000000001E-2</v>
+      </c>
+      <c r="M8">
+        <v>-1.6802999999999998E-2</v>
+      </c>
+      <c r="N8">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="O8">
+        <v>6.0420000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0.57032000000000005</v>
+      </c>
+      <c r="E9">
+        <v>2.7446000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.3668000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.33873799999999998</v>
+      </c>
+      <c r="H9">
+        <v>3.4048000000000002E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.3414000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>-2.3E-5</v>
+      </c>
+      <c r="K9">
+        <v>4.1869999999999997E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.3917000000000003E-2</v>
+      </c>
+      <c r="M9">
+        <v>-2.3E-5</v>
+      </c>
+      <c r="N9">
+        <v>4.1869999999999997E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.3917000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.26003599999999999</v>
+      </c>
+      <c r="E10">
+        <v>3.6017E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.6853999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.25308000000000003</v>
+      </c>
+      <c r="H10">
+        <v>3.6186000000000003E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.6689999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>-2.3E-5</v>
+      </c>
+      <c r="K10">
+        <v>4.1869999999999997E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.3917000000000003E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.3E-5</v>
+      </c>
+      <c r="N10">
+        <v>4.1869999999999997E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.3917000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2015</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B11" s="1">
         <v>2016</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.88620500000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.9934E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.8582999999999999E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.86444900000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.1756999999999999E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.0112000000000001E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-2.6830000000000001E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5.9172000000000002E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5.7834999999999998E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-2.6830000000000001E-3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.9172000000000002E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5.7834999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.38489099999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5.1902999999999998E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.3959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.88620500000000002</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.9934E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.8582999999999999E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.86444900000000002</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2.1756999999999999E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.0112000000000001E-2</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="D15">
+        <v>0.39069599999999999</v>
+      </c>
+      <c r="E15">
+        <v>4.6127000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>4.5053000000000003E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.38863700000000001</v>
+      </c>
+      <c r="H15">
+        <v>4.6205000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.4831000000000003E-2</v>
+      </c>
+      <c r="J15">
         <v>-2.6830000000000001E-3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K15">
         <v>5.9172000000000002E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L15">
         <v>5.7834999999999998E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M15">
         <v>-2.6830000000000001E-3</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N15">
         <v>5.9172000000000002E-2</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O15">
         <v>5.7834999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2015</v>
       </c>
-      <c r="B8">
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>-31.082526000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.18853800000000001</v>
+      </c>
+      <c r="F16">
+        <v>2.6166999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>-28.490587999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.18076200000000001</v>
+      </c>
+      <c r="I16">
+        <v>3.0412000000000002E-2</v>
+      </c>
+      <c r="J16">
+        <v>-2.9499000000000001E-2</v>
+      </c>
+      <c r="K16">
+        <v>3.3773999999999998E-2</v>
+      </c>
+      <c r="L16">
+        <v>4.5935999999999998E-2</v>
+      </c>
+      <c r="M16">
+        <v>-2.9499000000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>3.3773999999999998E-2</v>
+      </c>
+      <c r="O16">
+        <v>4.5935999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>0.194407</v>
+      </c>
+      <c r="E17">
+        <v>2.9876E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.5839999999999997E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.21940899999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.9409000000000001E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.5791999999999997E-2</v>
+      </c>
+      <c r="J17">
+        <v>-2.9499000000000001E-2</v>
+      </c>
+      <c r="K17">
+        <v>3.3773999999999998E-2</v>
+      </c>
+      <c r="L17">
+        <v>4.5935999999999998E-2</v>
+      </c>
+      <c r="M17">
+        <v>-2.9499000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>3.3773999999999998E-2</v>
+      </c>
+      <c r="O17">
+        <v>4.5935999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2016</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>-14.800903</v>
+      </c>
+      <c r="E18">
+        <v>0.132135</v>
+      </c>
+      <c r="F18">
+        <v>3.3749000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>-28.651122999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.181007</v>
+      </c>
+      <c r="I18">
+        <v>3.5275000000000001E-2</v>
+      </c>
+      <c r="J18">
+        <v>-7.0364999999999997E-2</v>
+      </c>
+      <c r="K18">
+        <v>3.4390999999999998E-2</v>
+      </c>
+      <c r="L18">
+        <v>4.9026E-2</v>
+      </c>
+      <c r="M18">
+        <v>-7.0364999999999997E-2</v>
+      </c>
+      <c r="N18">
+        <v>3.4390999999999998E-2</v>
+      </c>
+      <c r="O18">
+        <v>4.9026E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>2017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0.30934</v>
+      </c>
+      <c r="E19">
+        <v>2.7625E-2</v>
+      </c>
+      <c r="F19">
+        <v>3.9108999999999998E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.32535999999999998</v>
+      </c>
+      <c r="H19">
+        <v>2.7303000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>3.9019999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>-7.0364999999999997E-2</v>
+      </c>
+      <c r="K19">
+        <v>3.4390999999999998E-2</v>
+      </c>
+      <c r="L19">
+        <v>4.9026E-2</v>
+      </c>
+      <c r="M19">
+        <v>-7.0364999999999997E-2</v>
+      </c>
+      <c r="N19">
+        <v>3.4390999999999998E-2</v>
+      </c>
+      <c r="O19">
+        <v>4.9026E-2</v>
+      </c>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.81880799999999998</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0.86773400000000001</v>
+      </c>
+      <c r="V21">
+        <v>0.82366099999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.82371499999999997</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.86728099999999997</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0.82684999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <v>0.38489099999999998</v>
+      </c>
+      <c r="U23">
+        <v>0.38045099999999998</v>
+      </c>
+      <c r="V23">
+        <v>0.38247900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="S24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24">
+        <v>0.36387799999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.38290600000000002</v>
+      </c>
+      <c r="V24">
+        <v>0.36212299999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25">
+        <v>6.8267999999999995E-2</v>
+      </c>
+      <c r="U25">
+        <v>6.9663000000000003E-2</v>
+      </c>
+      <c r="V25">
+        <v>6.7932999999999993E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>0.39069599999999999</v>
-      </c>
-      <c r="E8">
-        <v>4.6127000000000001E-2</v>
-      </c>
-      <c r="F8">
-        <v>4.5053000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.38863700000000001</v>
-      </c>
-      <c r="H8">
-        <v>4.6205000000000003E-2</v>
-      </c>
-      <c r="I8">
-        <v>4.4831000000000003E-2</v>
-      </c>
-      <c r="J8">
-        <v>-2.6830000000000001E-3</v>
-      </c>
-      <c r="K8">
-        <v>5.9172000000000002E-2</v>
-      </c>
-      <c r="L8">
-        <v>5.7834999999999998E-2</v>
-      </c>
-      <c r="M8">
-        <v>-2.6830000000000001E-3</v>
-      </c>
-      <c r="N8">
-        <v>5.9172000000000002E-2</v>
-      </c>
-      <c r="O8">
-        <v>5.7834999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2015</v>
-      </c>
-      <c r="B9">
-        <v>2017</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>-31.082526000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.18853800000000001</v>
-      </c>
-      <c r="F9">
-        <v>2.6166999999999999E-2</v>
-      </c>
-      <c r="G9">
-        <v>-28.490587999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.18076200000000001</v>
-      </c>
-      <c r="I9">
-        <v>3.0412000000000002E-2</v>
-      </c>
-      <c r="J9">
-        <v>-2.9499000000000001E-2</v>
-      </c>
-      <c r="K9">
-        <v>3.3773999999999998E-2</v>
-      </c>
-      <c r="L9">
-        <v>4.5935999999999998E-2</v>
-      </c>
-      <c r="M9">
-        <v>-2.9499000000000001E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.3773999999999998E-2</v>
-      </c>
-      <c r="O9">
-        <v>4.5935999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2015</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.81880799999999998</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.8170000000000001E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2.1018999999999999E-2</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.86773400000000001</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.4067999999999999E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2.1562000000000001E-2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>0.82366099999999998</v>
+      </c>
+      <c r="M26">
+        <v>2.7789999999999999E-2</v>
+      </c>
+      <c r="N26">
+        <v>2.0823000000000001E-2</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0.84118999999999999</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0.84778100000000001</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0.84993799999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>0.194407</v>
-      </c>
-      <c r="E10">
-        <v>2.9876E-2</v>
-      </c>
-      <c r="F10">
-        <v>3.5839999999999997E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.21940899999999999</v>
-      </c>
-      <c r="H10">
-        <v>2.9409000000000001E-2</v>
-      </c>
-      <c r="I10">
-        <v>3.5791999999999997E-2</v>
-      </c>
-      <c r="J10">
-        <v>-2.9499000000000001E-2</v>
-      </c>
-      <c r="K10">
-        <v>3.3773999999999998E-2</v>
-      </c>
-      <c r="L10">
-        <v>4.5935999999999998E-2</v>
-      </c>
-      <c r="M10">
-        <v>-2.9499000000000001E-2</v>
-      </c>
-      <c r="N10">
-        <v>3.3773999999999998E-2</v>
-      </c>
-      <c r="O10">
-        <v>4.5935999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2016</v>
-      </c>
-      <c r="B11">
-        <v>2017</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>-14.800903</v>
-      </c>
-      <c r="E11">
-        <v>0.132135</v>
-      </c>
-      <c r="F11">
-        <v>3.3749000000000001E-2</v>
-      </c>
-      <c r="G11">
-        <v>-28.651122999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.181007</v>
-      </c>
-      <c r="I11">
-        <v>3.5275000000000001E-2</v>
-      </c>
-      <c r="J11">
-        <v>-7.0364999999999997E-2</v>
-      </c>
-      <c r="K11">
-        <v>3.4390999999999998E-2</v>
-      </c>
-      <c r="L11">
-        <v>4.9026E-2</v>
-      </c>
-      <c r="M11">
-        <v>-7.0364999999999997E-2</v>
-      </c>
-      <c r="N11">
-        <v>3.4390999999999998E-2</v>
-      </c>
-      <c r="O11">
-        <v>4.9026E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12">
-        <v>2017</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.82371499999999997</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.7786000000000002E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2.0528999999999999E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.86728099999999997</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2.4108999999999998E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2.1805999999999999E-2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.82684999999999997</v>
+      </c>
+      <c r="M27" s="6">
+        <v>2.7538E-2</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2.0542999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
-        <v>0.30934</v>
-      </c>
-      <c r="E12">
-        <v>2.7625E-2</v>
-      </c>
-      <c r="F12">
-        <v>3.9108999999999998E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.32535999999999998</v>
-      </c>
-      <c r="H12">
-        <v>2.7303000000000001E-2</v>
-      </c>
-      <c r="I12">
-        <v>3.9019999999999999E-2</v>
-      </c>
-      <c r="J12">
-        <v>-7.0364999999999997E-2</v>
-      </c>
-      <c r="K12">
-        <v>3.4390999999999998E-2</v>
-      </c>
-      <c r="L12">
-        <v>4.9026E-2</v>
-      </c>
-      <c r="M12">
-        <v>-7.0364999999999997E-2</v>
-      </c>
-      <c r="N12">
-        <v>3.4390999999999998E-2</v>
-      </c>
-      <c r="O12">
-        <v>4.9026E-2</v>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0.38489099999999998</v>
+      </c>
+      <c r="E28">
+        <v>5.1902999999999998E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.3959999999999999E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.38045099999999998</v>
+      </c>
+      <c r="H28">
+        <v>5.2089999999999997E-2</v>
+      </c>
+      <c r="I28">
+        <v>4.3561999999999997E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>0.38247900000000001</v>
+      </c>
+      <c r="M28">
+        <v>5.2005000000000003E-2</v>
+      </c>
+      <c r="N28">
+        <v>4.3761000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>0.36387799999999998</v>
+      </c>
+      <c r="E29">
+        <v>5.2782000000000003E-2</v>
+      </c>
+      <c r="F29">
+        <v>4.2942000000000001E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.38290600000000002</v>
+      </c>
+      <c r="H29">
+        <v>5.1986999999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>4.3091999999999998E-2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>0.36212299999999997</v>
+      </c>
+      <c r="M29">
+        <v>5.2854999999999999E-2</v>
+      </c>
+      <c r="N29">
+        <v>4.2952999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>6.8267999999999995E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.3879000000000005E-2</v>
+      </c>
+      <c r="F30">
+        <v>5.2150000000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>6.9663000000000003E-2</v>
+      </c>
+      <c r="H30">
+        <v>6.3832E-2</v>
+      </c>
+      <c r="I30">
+        <v>5.2489000000000001E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <v>6.7932999999999993E-2</v>
+      </c>
+      <c r="M30">
+        <v>6.3891000000000003E-2</v>
+      </c>
+      <c r="N30">
+        <v>5.2138999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>-0.38684499999999999</v>
+      </c>
+      <c r="E38">
+        <v>7.7935000000000004E-2</v>
+      </c>
+      <c r="F38">
+        <v>9.1976000000000002E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.230243</v>
+      </c>
+      <c r="I38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <v>-0.34649999999999997</v>
+      </c>
+      <c r="L38">
+        <v>0.78373099999999996</v>
+      </c>
+      <c r="M38">
+        <v>3.0776000000000001E-2</v>
+      </c>
+      <c r="N38">
+        <v>2.3970000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>-1.290462</v>
+      </c>
+      <c r="E39">
+        <v>0.100156</v>
+      </c>
+      <c r="F39">
+        <v>0.118562</v>
+      </c>
+      <c r="G39">
+        <v>0.33215499999999998</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="L39">
+        <v>0.43908700000000001</v>
+      </c>
+      <c r="M39">
+        <v>4.9563999999999997E-2</v>
+      </c>
+      <c r="N39">
+        <v>4.2062000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>0.80163300000000004</v>
+      </c>
+      <c r="E40">
+        <v>2.9475000000000001E-2</v>
+      </c>
+      <c r="F40">
+        <v>2.2165000000000001E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.78785000000000005</v>
+      </c>
+      <c r="J40">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.81448100000000001</v>
+      </c>
+      <c r="M40">
+        <v>2.8504000000000002E-2</v>
+      </c>
+      <c r="N40">
+        <v>2.1111999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>0.386494</v>
+      </c>
+      <c r="E41">
+        <v>5.1834999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>4.6066999999999997E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.41792499999999999</v>
+      </c>
+      <c r="J41">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.35012799999999999</v>
+      </c>
+      <c r="M41">
+        <v>5.3349000000000001E-2</v>
+      </c>
+      <c r="N41">
+        <v>4.4673999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>0.82561099999999998</v>
+      </c>
+      <c r="E42">
+        <v>2.7636000000000001E-2</v>
+      </c>
+      <c r="F42">
+        <v>2.445E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.77868300000000001</v>
+      </c>
+      <c r="J42">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.84052899999999997</v>
+      </c>
+      <c r="M42" s="5">
+        <v>2.6428E-2</v>
+      </c>
+      <c r="N42" s="5">
+        <v>2.2332000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>0.38571800000000001</v>
+      </c>
+      <c r="E43">
+        <v>5.1867999999999997E-2</v>
+      </c>
+      <c r="F43">
+        <v>4.6056E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.46656799999999998</v>
+      </c>
+      <c r="J43">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="L43">
+        <v>0.36770900000000001</v>
+      </c>
+      <c r="M43">
+        <v>5.2623000000000003E-2</v>
+      </c>
+      <c r="N43">
+        <v>4.5005000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44">
+        <v>0.836731</v>
+      </c>
+      <c r="E44">
+        <v>2.674E-2</v>
+      </c>
+      <c r="F44">
+        <v>2.3335000000000002E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.83752499999999996</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+      <c r="L44">
+        <v>0.84993799999999997</v>
+      </c>
+      <c r="M44">
+        <v>2.5635999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <v>2.3470000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>0.40622000000000003</v>
+      </c>
+      <c r="E45">
+        <v>5.0994999999999999E-2</v>
+      </c>
+      <c r="F45">
+        <v>4.7749E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.442799</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="J45">
+        <v>-0.14849999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.38746900000000001</v>
+      </c>
+      <c r="M45">
+        <v>5.1794E-2</v>
+      </c>
+      <c r="N45">
+        <v>4.6600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>0.81631900000000002</v>
+      </c>
+      <c r="E46">
+        <v>2.8362999999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>2.3699000000000001E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.75935299999999994</v>
+      </c>
+      <c r="J46">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+      <c r="L46">
+        <v>0.84321000000000002</v>
+      </c>
+      <c r="M46">
+        <v>2.6204000000000002E-2</v>
+      </c>
+      <c r="N46">
+        <v>2.0542999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>0.37069299999999999</v>
+      </c>
+      <c r="E47">
+        <v>5.2498999999999997E-2</v>
+      </c>
+      <c r="F47">
+        <v>4.6024000000000002E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.42482199999999998</v>
+      </c>
+      <c r="J47">
+        <v>-0.2475</v>
+      </c>
+      <c r="L47">
+        <v>0.38980300000000001</v>
+      </c>
+      <c r="M47">
+        <v>5.1694999999999998E-2</v>
+      </c>
+      <c r="N47">
+        <v>4.4616999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <v>0.56719399999999998</v>
+      </c>
+      <c r="E49">
+        <v>4.3536999999999999E-2</v>
+      </c>
+      <c r="F49">
+        <v>5.0252999999999999E-2</v>
+      </c>
+      <c r="G49">
+        <v>-1.164523</v>
+      </c>
+      <c r="J49">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+      <c r="L49">
+        <v>0.78373099999999996</v>
+      </c>
+      <c r="M49">
+        <v>3.0776000000000001E-2</v>
+      </c>
+      <c r="N49">
+        <v>2.3970000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>0.80832000000000004</v>
+      </c>
+      <c r="E50">
+        <v>2.8974E-2</v>
+      </c>
+      <c r="F50">
+        <v>2.1558000000000001E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.80824799999999997</v>
+      </c>
+      <c r="J50">
+        <v>-0.14849999999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.81448100000000001</v>
+      </c>
+      <c r="M50">
+        <v>2.8504000000000002E-2</v>
+      </c>
+      <c r="N50">
+        <v>2.1111999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>0.83038699999999999</v>
+      </c>
+      <c r="E51">
+        <v>2.7255000000000001E-2</v>
+      </c>
+      <c r="F51">
+        <v>2.3673E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.84724600000000005</v>
+      </c>
+      <c r="J51">
+        <v>-0.2475</v>
+      </c>
+      <c r="L51">
+        <v>0.84052899999999997</v>
+      </c>
+      <c r="M51">
+        <v>2.6428E-2</v>
+      </c>
+      <c r="N51">
+        <v>2.2332000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.84118999999999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2.6373000000000001E-2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2.2645999999999999E-2</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.84778100000000001</v>
+      </c>
+      <c r="J52" s="6">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="L52" s="10">
+        <v>0.84993799999999997</v>
+      </c>
+      <c r="M52" s="10">
+        <v>2.5635999999999999E-2</v>
+      </c>
+      <c r="N52" s="10">
+        <v>2.3470000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>0.83205099999999999</v>
+      </c>
+      <c r="E53">
+        <v>2.7120999999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>2.1968000000000001E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.818268</v>
+      </c>
+      <c r="J53">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.84321000000000002</v>
+      </c>
+      <c r="M53">
+        <v>2.6204000000000002E-2</v>
+      </c>
+      <c r="N53">
+        <v>2.0542999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
@@ -1015,5 +4486,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>